--- a/data/compile_2015-2019/field_data/LGSS_16-17_MASTER_v2_noNA.xlsx
+++ b/data/compile_2015-2019/field_data/LGSS_16-17_MASTER_v2_noNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LGSS_scripting\lgss\data\compile_2015-2019\field_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99227062-BC36-47B3-8B17-BE0B679F87EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A170E4C-F932-4D6C-818F-B02B73A24099}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="11330" windowWidth="19200" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="5" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="891">
   <si>
     <t>BAS_LOC_RM</t>
   </si>
@@ -2930,6 +2930,9 @@
   </si>
   <si>
     <t>MACROPHYTE_pct</t>
+  </si>
+  <si>
+    <t>07-HARB-0.5</t>
   </si>
 </sst>
 </file>
@@ -33339,7 +33342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36405,7 +36408,7 @@
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B14">
         <v>7</v>
